--- a/resources/IDCAM_Fiche_Activite_Journaliere.xlsx
+++ b/resources/IDCAM_Fiche_Activite_Journaliere.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12075"/>
+    <workbookView windowWidth="20490" windowHeight="7395" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Rapport Journalier" sheetId="1" r:id="rId1"/>
+    <sheet name="Liste" sheetId="2" r:id="rId1"/>
+    <sheet name="Rapport Journalier" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+  <si>
+    <t>Abdoul Nassir</t>
+  </si>
+  <si>
+    <t>Abdoul-aziz Laminou</t>
+  </si>
+  <si>
+    <t>ABDOUL-AZIZ M.L</t>
+  </si>
+  <si>
+    <t>ABOUBAKAR SAID DJAMA’A</t>
+  </si>
+  <si>
+    <t>AHMADOU SAÏD RAÏS</t>
+  </si>
+  <si>
+    <t>AMADOU W. BENJAMAIN</t>
+  </si>
+  <si>
+    <t>BIDJO Davy Lionel</t>
+  </si>
+  <si>
+    <t>BRAIN AMINKENG</t>
+  </si>
+  <si>
+    <t>DONALD NGAHE</t>
+  </si>
+  <si>
+    <t>EBOMO Roland X.</t>
+  </si>
+  <si>
+    <t>Enyengue B. Justin</t>
+  </si>
+  <si>
+    <t>FORCHA J. Julius</t>
+  </si>
+  <si>
+    <t>Jethro Anu</t>
+  </si>
+  <si>
+    <t>KAMENI Clauvis</t>
+  </si>
+  <si>
+    <t>Kenmegneu Steve B.</t>
+  </si>
+  <si>
+    <t>MOHAMADOU ABASSI</t>
+  </si>
+  <si>
+    <t>Mohamadou FABILOU</t>
+  </si>
+  <si>
+    <t>MOUKOKO N. Lilian J.</t>
+  </si>
+  <si>
+    <t>MVIE N. Sylvestre</t>
+  </si>
+  <si>
+    <t>Nana SOUAIBOU</t>
+  </si>
+  <si>
+    <t>Ngantchang Simon</t>
+  </si>
+  <si>
+    <t>NOTAM NGALO JORES</t>
+  </si>
+  <si>
+    <t>NYOUNAI Liken Thierry</t>
+  </si>
+  <si>
+    <t>OTO’O BIDJA ROHI APOSTOLD</t>
+  </si>
+  <si>
+    <t>Oumarou Mohamadou</t>
+  </si>
+  <si>
+    <t>Petsoko F. Emrick</t>
+  </si>
+  <si>
+    <t>SENA Steevy</t>
+  </si>
+  <si>
+    <t>TANO AO Junior</t>
+  </si>
+  <si>
+    <t>TAWET Ivan</t>
+  </si>
+  <si>
+    <t>TCHAMENI Y. MOREL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCHAWOU CYRUS </t>
+  </si>
+  <si>
+    <t>TCHUO Brice</t>
+  </si>
+  <si>
+    <t>WAMBO VALENTIN</t>
+  </si>
   <si>
     <t>FICHE D'ACTIVITE JOURNALIERE IDCAM</t>
   </si>
@@ -35,7 +135,7 @@
     <t>Date du rapport:</t>
   </si>
   <si>
-    <t>[Date]</t>
+    <t>04/02/2026</t>
   </si>
   <si>
     <t>1. NOMBRE D'INTERVENTIONS PAR TYPE</t>
@@ -65,6 +165,9 @@
     <t>Total journée</t>
   </si>
   <si>
+    <t>EN</t>
+  </si>
+  <si>
     <t>Logiciel</t>
   </si>
   <si>
@@ -87,9 +190,6 @@
   </si>
   <si>
     <t>Durée totale (h:m:s)</t>
-  </si>
-  <si>
-    <t>Nom technicien</t>
   </si>
   <si>
     <t>3. LISTE DES INTERVENTIONS DE LA JOURNÉE</t>
@@ -156,15 +256,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="180" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +323,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial Nova Cond"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
       <charset val="134"/>
     </font>
     <font>
@@ -581,7 +688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -655,15 +762,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -719,15 +817,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -846,144 +935,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1038,38 +1127,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1417,16 +1512,201 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B2:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.2190476190476" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4285714285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.552380952381" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.4380952380952" style="1" customWidth="1"/>
@@ -1441,21 +1721,21 @@
   <sheetData>
     <row r="1" ht="25.05" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="22.2" customHeight="1"/>
     <row r="4" ht="31.8" customHeight="1" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1466,37 +1746,38 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" ht="28.5" spans="1:9">
+    <row r="5" ht="28.5" spans="1:8">
       <c r="A5" s="7" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="F5" s="7" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="8"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C6" s="10">
         <v>0</v>
@@ -1514,17 +1795,14 @@
         <v>0</v>
       </c>
       <c r="H6" s="10">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
-        <f>SUM(C6:H6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <f>SUM(C6:G6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="11"/>
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C7" s="10">
         <v>0</v>
@@ -1542,17 +1820,14 @@
         <v>0</v>
       </c>
       <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <f>SUM(C7:H7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <f>SUM(C7:G7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10">
         <v>0</v>
@@ -1570,27 +1845,27 @@
         <v>0</v>
       </c>
       <c r="H8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
-        <f>SUM(C8:H8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <f>SUM(C8:G8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C9" s="13">
-        <f t="shared" ref="C9:I9" si="0">SUM(C6:C8)</f>
+        <f t="shared" ref="C9:H9" si="0">SUM(C6:C8)</f>
         <v>0</v>
       </c>
       <c r="D9" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1600,10 +1875,6 @@
         <v>0</v>
       </c>
       <c r="H9" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1611,7 +1882,7 @@
     <row r="10" ht="21.6" customHeight="1"/>
     <row r="11" ht="31.2" customHeight="1" spans="1:9">
       <c r="A11" s="14" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1624,22 +1895,24 @@
     </row>
     <row r="12" ht="28.5" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="16"/>
+      <c r="A13" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="B13" s="17" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C13" s="10">
         <v>0</v>
@@ -1651,7 +1924,7 @@
     <row r="14" spans="1:4">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C14" s="13">
         <f>SUM(C13:C13)</f>
@@ -1665,7 +1938,7 @@
     <row r="15" ht="27.6" customHeight="1"/>
     <row r="16" ht="30" customHeight="1" spans="1:11">
       <c r="A16" s="14" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1680,37 +1953,37 @@
     </row>
     <row r="17" ht="28.5" spans="1:11">
       <c r="A17" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1722,11 +1995,11 @@
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="31"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="10">
@@ -1737,11 +2010,11 @@
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="31"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="10">
@@ -1752,11 +2025,11 @@
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="31"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="10">
@@ -1767,44 +2040,31 @@
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
-      <c r="G21" s="31"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="K21" s="33"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="10">
         <v>5</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="32"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="34"/>
     </row>
     <row r="24" ht="24.6" customHeight="1"/>
     <row r="25" ht="34.2" customHeight="1" spans="1:10">
       <c r="A25" s="14" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -1817,11 +2077,11 @@
       <c r="J25" s="15"/>
     </row>
     <row r="26" ht="24.6" customHeight="1" spans="1:10">
-      <c r="A26" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28">
+      <c r="A26" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26">
         <v>0</v>
       </c>
       <c r="D26" s="15"/>
@@ -1846,67 +2106,67 @@
     </row>
     <row r="28" ht="42.75" spans="1:9">
       <c r="A28" s="20" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="29"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="33"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="33"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1918,6 +2178,14 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A6:A8"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur!" error="Choisissez dans la liste" promptTitle="Nom Technicien" prompt="Choisissez votre nom" sqref="B13">
+      <formula1>Liste!$B$2:$B$34</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur!" error="Veuillez choisir votre nom SVP" promptTitle="Nom technicien" prompt="Choisissez votre nom" sqref="B18:B19 B20:B22">
+      <formula1>Liste!$B$2:$B$34</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
